--- a/lead_tracker.xlsx
+++ b/lead_tracker.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,172 +456,48 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>match</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>email</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>match</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Larsen &amp; Toubro</t>
+          <t>Food Safety and Standards Authority of India (FSSAI)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://www.lt.com</t>
+          <t>https://www.fssai.gov.in/</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>A leading construction and engineering company with a strong presence in South India</t>
+          <t>Regulatory body for food safety in India, responsible for ensuring food safety and hygiene standards</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Construction, infrastructure, and engineering services</t>
+          <t>Food inspection and testing services</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>{'subject': 'Enhance Construction Efficiency with Replicant Systems', 'body': 'Dear Larsen &amp; Toubro Team,\n\nReplicant Systems vision AI can help Larsen L ToToubro automate inspection and monitoring of construction sites reducing manual errors and increasing efficiency. Our industrial automation solutions can also optimize construction processes improving project timelines and reducing costs.\n\nBest regards,\nReplicant Systems Team'}</t>
+          <t>Replicant Systems vision AI + industrial automation can help FSSAI enhance food safety by automating inspection processes</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Replicant Systems vision AI can help Larsen L ToToubro automate inspection and monitoring of construction sites reducing manual errors and increasing efficiency. Their industrial automation solutions can also optimize construction processes improving project timelines and reducing costs.</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Simplex Infrastructure</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>https://www.simplexinfra.com</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>A prominent construction company with operations in South India, specializing in infrastructure projects</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Construction, infrastructure, and project management services</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>{'subject': 'Improve Construction Quality with Replicant Systems', 'body': 'Dear Simplex Infrastructure Team,\n\nReplicant Systems AI-powered quality control can help Simplex Infrastructure ensure compliance with construction construction standards and regulations reducing rework and improving customer satisfaction. Our automation solutions can also streamline construction workflows enhancing productivity and reducing labor costs.\n\nBest regards,\nReplicant Systems Team'}</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Replicant Systems AI-powered quality control can help Simplex Infrastructure ensure compliance with construction construction standards and regulations reducing rework and improving customer satisfaction. Their automation solutions can also streamline construction workflows enhancing productivity and reducing labor costs.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Puducherry Construction Company</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>A government-owned construction company based in Puducherry, South India</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Construction services for government and public sector projects</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>{'subject': 'Boost Site Safety with Replicant Systems', 'body': 'Dear Puducherry Construction Company Team,\n\nReplicant Systems vision AI can help Puducherry Construction Company improve site safety by detecting potential hazards and monitoring worker activity. Our industrial automation solutions can also optimize resource allocation reducing waste and improving project outcomes.\n\nBest regards,\nReplicant Systems Team'}</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Replicant Systems vision AI can help Puducherry Construction Company improve site safety by detecting potential hazards and monitoring worker activity. Their industrial automation solutions can also optimize resource allocation reducing waste and improving project outcomes.</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>My Home Constructions</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>https://www.myhomeconstructions.com</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>A leading construction company in South India, specializing in residential and commercial projects</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Residential and commercial construction services</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>{'subject': 'Real-Time Construction Monitoring with Replicant Systems', 'body': 'Dear My Home Constructions Team,\n\nReplicant Systems AI-driven construction monitoring can help My Home Constructions track project progress in real-time enabling data-driven decision-making and improved customer communication. Our automation solutions can also enhance construction quality reducing defects and warranty claims.\n\nBest regards,\nReplicant Systems Team'}</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Replicant Systems AI-driven construction monitoring can help My Home Constructions track project progress in real-time enabling data-driven decision-making and improved customer communication. Their automation solutions can also enhance construction quality reducing defects and warranty claims.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>BGR Group</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>https://www.bgrenergy.com</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>A diversified construction and engineering company with a presence in South India</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Construction, engineering, and project management services</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>{'subject': 'Optimize Construction Operations with Replicant Systems', 'body': 'Dear BGR Group Team,\n\nReplicant Systems industrial automation solutions can help BGR Group optimize construction equipment usage reducing downtime and improving asset utilization. Our vision AI can also enable automated defect detection improving construction quality and reducing maintenance costs.\n\nBest regards,\nReplicant Systems Team'}</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Replicant Systems industrial automation solutions can help BGR Group optimize construction equipment usage reducing downtime and improving asset utilization. Their vision AI can also enable automated defect detection improving construction quality and reducing maintenance costs.</t>
+          <t>Subject: Enhancing Food Safety with AI-Powered Inspection Solutions
+Dear FSSAI Team,
+Replicant Systems specializesizes in AI-driven vision systems and industrial automation solutions. Our technology can help automate food inspection processes.
+Best regards,
+Replicant Systems Team</t>
         </is>
       </c>
     </row>

--- a/lead_tracker.xlsx
+++ b/lead_tracker.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,48 +456,76 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>revenue</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>match</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>email</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Food Safety and Standards Authority of India (FSSAI)</t>
+          <t>Dixon Technologies</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://www.fssai.gov.in/</t>
+          <t>https://dixonindia.com</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Regulatory body for food safety in India, responsible for ensuring food safety and hygiene standards</t>
+          <t>Dixon Technologies is an electronics manufacturing services (EMS) company</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Food inspection and testing services</t>
+          <t>LED TVs, mobile phones, home appliances</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Replicant Systems vision AI + industrial automation can help FSSAI enhance food safety by automating inspection processes</t>
+          <t>500-1000 cr</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Subject: Enhancing Food Safety with AI-Powered Inspection Solutions
-Dear FSSAI Team,
-Replicant Systems specializesizes in AI-driven vision systems and industrial automation solutions. Our technology can help automate food inspection processes.
-Best regards,
-Replicant Systems Team</t>
+          <t>Replicant Systems' vision AI can help Dixon Technologies automate inspection of LED TVs and mobile phones, reducing defects and increasing efficiency.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Optiemus Infracom</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://optiemus.com</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Optiemus Infracom is a telecom and electronics manufacturing company</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Telecom equipment, electronic devices, IoT solutions</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>500-1000 cr</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Replicant Systems' industrial automation solutions can assist Optiemus Infracom in streamlining telecom equipment manufacturing, improving product reliability and reducing costs.</t>
         </is>
       </c>
     </row>
